--- a/db/Attorneys.xlsx
+++ b/db/Attorneys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\AppData\Local\Programs\Python\Python310\MuniEntry\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkudela\AppData\Local\Programs\Python\Python310\MuniEntry\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E36565D-0280-4401-8072-0D22937803A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FE7449-BFAF-4EE7-B750-344EFB12C669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9015" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Attorney First Name</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Mayo</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>attorney</t>
   </si>
 </sst>
 </file>
@@ -209,11 +215,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,22 +536,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.9375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,187 +559,195 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
     </row>
